--- a/quiz_responses.xlsx
+++ b/quiz_responses.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -502,9 +502,59 @@
         <v>2025-04-01T00:58:10.677Z</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>basic</v>
+      </c>
+      <c r="B3" t="str">
+        <v>81</v>
+      </c>
+      <c r="C3" t="str">
+        <v>weeks</v>
+      </c>
+      <c r="D3" t="str">
+        <v>72</v>
+      </c>
+      <c r="E3" t="str">
+        <v>stand_jeans</v>
+      </c>
+      <c r="F3" t="str">
+        <v>50</v>
+      </c>
+      <c r="G3" t="str">
+        <v>quiet</v>
+      </c>
+      <c r="H3" t="str">
+        <v>51</v>
+      </c>
+      <c r="I3" t="str">
+        <v>yes</v>
+      </c>
+      <c r="J3" t="str">
+        <v>52</v>
+      </c>
+      <c r="K3" t="str">
+        <v>butler</v>
+      </c>
+      <c r="L3" t="str">
+        <v>69</v>
+      </c>
+      <c r="M3" t="str">
+        <v>popupbagels</v>
+      </c>
+      <c r="N3" t="str">
+        <v>gossipers</v>
+      </c>
+      <c r="O3" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="P3" t="str">
+        <v>2025-04-21T06:00:45.201Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/quiz_responses.xlsx
+++ b/quiz_responses.xlsx
@@ -397,164 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>fridge</v>
-      </c>
-      <c r="B1" t="str">
-        <v>news_importance</v>
-      </c>
-      <c r="C1" t="str">
-        <v>assignments</v>
-      </c>
-      <c r="D1" t="str">
-        <v>text_first</v>
-      </c>
-      <c r="E1" t="str">
-        <v>subway</v>
-      </c>
-      <c r="F1" t="str">
-        <v>similar_friends</v>
-      </c>
-      <c r="G1" t="str">
-        <v>disagreement</v>
-      </c>
-      <c r="H1" t="str">
-        <v>work_life</v>
-      </c>
-      <c r="I1" t="str">
-        <v>eye_contact</v>
-      </c>
-      <c r="J1" t="str">
-        <v>work_ethic</v>
-      </c>
-      <c r="K1" t="str">
-        <v>college_best</v>
-      </c>
-      <c r="L1" t="str">
-        <v>stranger_connection</v>
-      </c>
-      <c r="M1" t="str">
-        <v>restaurant</v>
-      </c>
-      <c r="N1" t="str">
-        <v>lecture_annoyance</v>
-      </c>
-      <c r="O1" t="str">
-        <v>app</v>
-      </c>
-      <c r="P1" t="str">
-        <v>timestamp</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>basic</v>
-      </c>
-      <c r="B2" t="str">
-        <v>79</v>
-      </c>
-      <c r="C2" t="str">
-        <v>weeks</v>
-      </c>
-      <c r="D2" t="str">
-        <v>50</v>
-      </c>
-      <c r="E2" t="str">
-        <v>stand_jeans</v>
-      </c>
-      <c r="F2" t="str">
-        <v>73</v>
-      </c>
-      <c r="G2" t="str">
-        <v>confront</v>
-      </c>
-      <c r="H2" t="str">
-        <v>90</v>
-      </c>
-      <c r="I2" t="str">
-        <v>yes</v>
-      </c>
-      <c r="J2" t="str">
-        <v>85</v>
-      </c>
-      <c r="K2" t="str">
-        <v>butler</v>
-      </c>
-      <c r="L2" t="str">
-        <v>61</v>
-      </c>
-      <c r="M2" t="str">
-        <v>popupbagels</v>
-      </c>
-      <c r="N2" t="str">
-        <v>gossipers</v>
-      </c>
-      <c r="O2" t="str">
-        <v>tiktok</v>
-      </c>
-      <c r="P2" t="str">
-        <v>2025-04-01T00:58:10.677Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>basic</v>
-      </c>
-      <c r="B3" t="str">
-        <v>81</v>
-      </c>
-      <c r="C3" t="str">
-        <v>weeks</v>
-      </c>
-      <c r="D3" t="str">
-        <v>72</v>
-      </c>
-      <c r="E3" t="str">
-        <v>stand_jeans</v>
-      </c>
-      <c r="F3" t="str">
-        <v>50</v>
-      </c>
-      <c r="G3" t="str">
-        <v>quiet</v>
-      </c>
-      <c r="H3" t="str">
-        <v>51</v>
-      </c>
-      <c r="I3" t="str">
-        <v>yes</v>
-      </c>
-      <c r="J3" t="str">
-        <v>52</v>
-      </c>
-      <c r="K3" t="str">
-        <v>butler</v>
-      </c>
-      <c r="L3" t="str">
-        <v>69</v>
-      </c>
-      <c r="M3" t="str">
-        <v>popupbagels</v>
-      </c>
-      <c r="N3" t="str">
-        <v>gossipers</v>
-      </c>
-      <c r="O3" t="str">
-        <v>instagram</v>
-      </c>
-      <c r="P3" t="str">
-        <v>2025-04-21T06:00:45.201Z</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/quiz_responses.xlsx
+++ b/quiz_responses.xlsx
@@ -397,13 +397,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>fridge</v>
+      </c>
+      <c r="B1" t="str">
+        <v>news_importance</v>
+      </c>
+      <c r="C1" t="str">
+        <v>assignments</v>
+      </c>
+      <c r="D1" t="str">
+        <v>text_first</v>
+      </c>
+      <c r="E1" t="str">
+        <v>subway</v>
+      </c>
+      <c r="F1" t="str">
+        <v>similar_friends</v>
+      </c>
+      <c r="G1" t="str">
+        <v>disagreement</v>
+      </c>
+      <c r="H1" t="str">
+        <v>work_life</v>
+      </c>
+      <c r="I1" t="str">
+        <v>eye_contact</v>
+      </c>
+      <c r="J1" t="str">
+        <v>work_ethic</v>
+      </c>
+      <c r="K1" t="str">
+        <v>college_best</v>
+      </c>
+      <c r="L1" t="str">
+        <v>stranger_connection</v>
+      </c>
+      <c r="M1" t="str">
+        <v>restaurant</v>
+      </c>
+      <c r="N1" t="str">
+        <v>lecture_annoyance</v>
+      </c>
+      <c r="O1" t="str">
+        <v>app</v>
+      </c>
+      <c r="P1" t="str">
+        <v>timestamp</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>email</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>basic</v>
+      </c>
+      <c r="B2" t="str">
+        <v>71</v>
+      </c>
+      <c r="C2" t="str">
+        <v>days</v>
+      </c>
+      <c r="D2" t="str">
+        <v>93</v>
+      </c>
+      <c r="E2" t="str">
+        <v>pole_gloves</v>
+      </c>
+      <c r="F2" t="str">
+        <v>87</v>
+      </c>
+      <c r="G2" t="str">
+        <v>confront</v>
+      </c>
+      <c r="H2" t="str">
+        <v>79</v>
+      </c>
+      <c r="I2" t="str">
+        <v>no</v>
+      </c>
+      <c r="J2" t="str">
+        <v>89</v>
+      </c>
+      <c r="K2" t="str">
+        <v>social</v>
+      </c>
+      <c r="L2" t="str">
+        <v>85</v>
+      </c>
+      <c r="M2" t="str">
+        <v>hooda</v>
+      </c>
+      <c r="N2" t="str">
+        <v>coffee</v>
+      </c>
+      <c r="O2" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="P2" t="str">
+        <v>2025-04-22T00:35:11.683Z</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>gennasg97@gmail.com</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/quiz_responses.xlsx
+++ b/quiz_responses.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -508,9 +508,115 @@
         <v>gennasg97@gmail.com</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>stocked</v>
+      </c>
+      <c r="B3" t="str">
+        <v>67</v>
+      </c>
+      <c r="C3" t="str">
+        <v>days</v>
+      </c>
+      <c r="D3" t="str">
+        <v>97</v>
+      </c>
+      <c r="E3" t="str">
+        <v>pole_gloves</v>
+      </c>
+      <c r="F3" t="str">
+        <v>50</v>
+      </c>
+      <c r="G3" t="str">
+        <v>confront</v>
+      </c>
+      <c r="H3" t="str">
+        <v>83</v>
+      </c>
+      <c r="I3" t="str">
+        <v>no</v>
+      </c>
+      <c r="J3" t="str">
+        <v>91</v>
+      </c>
+      <c r="K3" t="str">
+        <v>butler</v>
+      </c>
+      <c r="L3" t="str">
+        <v>93</v>
+      </c>
+      <c r="M3" t="str">
+        <v>hooda</v>
+      </c>
+      <c r="N3" t="str">
+        <v>bouncer</v>
+      </c>
+      <c r="O3" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="P3" t="str">
+        <v>2025-04-22T00:39:12.765Z</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>gennasg97@gmail.com</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>basic</v>
+      </c>
+      <c r="B4" t="str">
+        <v>64</v>
+      </c>
+      <c r="C4" t="str">
+        <v>days</v>
+      </c>
+      <c r="D4" t="str">
+        <v>90</v>
+      </c>
+      <c r="E4" t="str">
+        <v>stand_jeans</v>
+      </c>
+      <c r="F4" t="str">
+        <v>90</v>
+      </c>
+      <c r="G4" t="str">
+        <v>confront</v>
+      </c>
+      <c r="H4" t="str">
+        <v>75</v>
+      </c>
+      <c r="I4" t="str">
+        <v>no</v>
+      </c>
+      <c r="J4" t="str">
+        <v>92</v>
+      </c>
+      <c r="K4" t="str">
+        <v>social</v>
+      </c>
+      <c r="L4" t="str">
+        <v>86</v>
+      </c>
+      <c r="M4" t="str">
+        <v>popupbagels</v>
+      </c>
+      <c r="N4" t="str">
+        <v>gossipers</v>
+      </c>
+      <c r="O4" t="str">
+        <v>beli</v>
+      </c>
+      <c r="P4" t="str">
+        <v>2025-04-22T00:40:40.760Z</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>paige@gmail.com</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q4"/>
   </ignoredErrors>
 </worksheet>
 </file>